--- a/Test_Execution_Status.xlsx
+++ b/Test_Execution_Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shriansh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DD2F3FE-DE4D-4753-8B01-AEE266AC077B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14F283A-F8B8-4CB0-9AA8-C871288F356B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15200" windowHeight="6930" xr2:uid="{F8976E7F-CC87-453E-9705-02FA99791D16}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t xml:space="preserve">Test Case Executed </t>
   </si>
@@ -48,10 +48,19 @@
     <t>Spelling correction required for ...</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -439,21 +448,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34CFA87-D712-4DC6-A56F-25B1124BA79F}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42.54296875" customWidth="1"/>
-    <col min="2" max="2" width="25.90625" customWidth="1"/>
-    <col min="3" max="3" width="20.08984375" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" customWidth="1"/>
+    <col min="2" max="3" width="25.90625" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="26.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -461,181 +470,214 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B12" xr:uid="{95AAF446-5EDE-4538-AA3F-F93D7ECCEF68}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C12" xr:uid="{95AAF446-5EDE-4538-AA3F-F93D7ECCEF68}">
       <formula1>"Pass, Failed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D12" xr:uid="{06EC3065-3023-4581-846E-C0E53174FD31}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E12" xr:uid="{06EC3065-3023-4581-846E-C0E53174FD31}">
       <formula1>" , In Progress, Resolved, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3 B2" xr:uid="{DA93150E-699F-4EF0-802E-CF200EDF8293}">
+      <formula1>"Passed, Failed"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{2D9B3C4E-E0BD-4CB9-B64B-0FD9614BC80B}">
+      <formula1>"Open, In Progress, Resolved, Reopened"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{51AC4FEC-DD60-4F07-A232-E6BDE62FC297}">
+      <formula1>"Low, Medium, High"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
